--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_0_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_0_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.93000000000061</v>
+        <v>25.76000000000059</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.231870207628468e-16</v>
+        <v>1.228462544536826e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.91008603662704</v>
+        <v>44.33498294912705</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[43.33461885821214, 50.485553215041946]</t>
+          <t>[40.70457387151763, 47.965392026736474]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.566079220708426, 1.7170266154755023]</t>
+          <t>[1.46544762419704, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.67337718440477</v>
+        <v>51.34822013406928</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.2781244609833, 54.06862990782624]</t>
+          <t>[48.87575367923925, 53.82068658889931]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.15549549549595</v>
+        <v>19.39091091091136</v>
       </c>
       <c r="X2" t="n">
-        <v>18.84402402402447</v>
+        <v>19.02990990991034</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.46696696696743</v>
+        <v>19.75191191191237</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.53000000000024</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.231870207628468e-16</v>
+        <v>1.228462544536826e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.77438446521606</v>
+        <v>49.0310365424486</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.6644144575837, 52.884354472848415]</t>
+          <t>[43.54911481389555, 54.51295827100166]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.754736973835386</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, -0.6163685286322318]</t>
+          <t>[-1.2956318050840787, -1.0692107129334625]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.37477431468994</v>
+        <v>51.92603879361975</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.31497909640617, 56.43456953297372]</t>
+          <t>[48.87437102737028, 54.977706559869226]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.826426426426455</v>
+        <v>4.371611611611645</v>
       </c>
       <c r="X3" t="n">
-        <v>2.308248248248271</v>
+        <v>3.953053053053082</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.344604604604639</v>
+        <v>4.790170170170208</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_0_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_0_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.76000000000059</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.228462544536826e-16</v>
+        <v>1.231870207628468e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.33498294912705</v>
+        <v>50.87843402108983</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[40.70457387151763, 47.965392026736474]</t>
+          <t>[47.44185683468238, 54.31501120749728]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.6415529180919641]</t>
+          <t>[1.5535002711445003, 1.679289766783734]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.34822013406928</v>
+        <v>50.96253939330747</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.87575367923925, 53.82068658889931]</t>
+          <t>[48.684250840435304, 53.24082794617964]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.39091091091136</v>
+        <v>19.28902902902949</v>
       </c>
       <c r="X2" t="n">
-        <v>19.02990990991034</v>
+        <v>19.02906906906952</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.75191191191237</v>
+        <v>19.54898898898946</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.23000000000019</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.228462544536826e-16</v>
+        <v>1.231870207628468e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>49.0310365424486</v>
+        <v>47.28481503144418</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.54911481389555, 54.51295827100166]</t>
+          <t>[42.504721268451995, 52.06490879443637]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.182421259008771</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.2956318050840787, -1.0692107129334625]</t>
+          <t>[-1.534631846798618, -1.3333686537758478]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>51.92603879361975</v>
+        <v>51.61804950285166</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.87437102737028, 54.977706559869226]</t>
+          <t>[48.49197717475088, 54.744121830952444]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.371611611611645</v>
+        <v>5.267507507507545</v>
       </c>
       <c r="X3" t="n">
-        <v>3.953053053053082</v>
+        <v>4.897857857857892</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.790170170170208</v>
+        <v>5.637157157157199</v>
       </c>
     </row>
   </sheetData>
